--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3582.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3582.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9087074302011845</v>
+        <v>4.246919631958008</v>
       </c>
       <c r="B1">
-        <v>1.300719535626811</v>
+        <v>4.157437801361084</v>
       </c>
       <c r="C1">
-        <v>2.462419460771494</v>
+        <v>1.989984631538391</v>
       </c>
       <c r="D1">
-        <v>5.264310847655956</v>
+        <v>1.512258648872375</v>
       </c>
       <c r="E1">
-        <v>1.801371566074102</v>
+        <v>1.345625400543213</v>
       </c>
     </row>
   </sheetData>
